--- a/Copilot_Credit_Estimator_For_AI Builder_With_Dashboard.xlsx
+++ b/Copilot_Credit_Estimator_For_AI Builder_With_Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samipath\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE58B831-378D-442D-B78A-2F7A04AFF55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223CB3FF-DBAD-439D-819D-C62F12FC1E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credit Calculator" sheetId="1" r:id="rId1"/>
@@ -43,14 +43,17 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Pathak, Samir:</t>
+          <t>Enter number of tokens in thousands, e.g. enter 1 for 1000 tokens consumed. Or enter # prompt run *  # Tokens in each run in thousands. ( e.g. for 100 prompt runs with 3000 tokens in each run, enter 100*3=300)</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{5EBA0502-F2B8-448B-95C4-E5CEC72C4BB4}">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
@@ -58,23 +61,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-Enter number of tokens in thousands, e.g. enter 1 for 1000 tokens consumed.</t>
+          <t>Enter number of tokens in thousands, e.g. enter 1 for 1000 tokens consumed.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{5EBA0502-F2B8-448B-95C4-E5CEC72C4BB4}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{FB2A59C7-14CF-4F35-992C-F2F20735BE11}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Pathak, Samir:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -82,23 +74,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-Enter number of tokens in thousands, e.g. enter 1 for 1000 tokens consumed.</t>
+          <t>Enter number of tokens in thousands, e.g. enter 1 for 1000 tokens consumed.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{FB2A59C7-14CF-4F35-992C-F2F20735BE11}">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{6AE6FFD7-6C5B-4DD1-944D-38D9881F35A6}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Pathak, Samir:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -106,33 +87,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-Enter number of tokens in thousands, e.g. enter 1 for 1000 tokens consumed.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{6AE6FFD7-6C5B-4DD1-944D-38D9881F35A6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Pathak, Samir:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-In case of multiple documents enter #of documents * # of pages per document
-</t>
+          <t>In case of multiple documents enter #of documents * # of pages per document</t>
         </r>
       </text>
     </comment>
@@ -140,14 +95,17 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Pathak, Samir:</t>
+          <t>Enter number of chars. in thousands, e.g. enter 1 for 1000 characters consumed.</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{E00D6B92-53BD-4FB6-971C-91DC57CAB7FF}">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
@@ -155,23 +113,12 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">
-Enter number of chars. in thousands, e.g. enter 1 for 1000 characters consumed.</t>
+          <t>Enter number of chars. in thousands, e.g. enter 1 for 1000 characters consumed.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{E00D6B92-53BD-4FB6-971C-91DC57CAB7FF}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{DBF7BE4B-DB70-4CC1-95E7-95A28DA35477}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Pathak, Samir:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -179,32 +126,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">
-Enter number of chars. in thousands, e.g. enter 1 for 1000 characters consumed.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{DBF7BE4B-DB70-4CC1-95E7-95A28DA35477}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Pathak, Samir:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Enter number of chars. in thousands, e.g. enter 1 for 1000 characters consumed.</t>
+          <t>Enter number of chars. in thousands, e.g. enter 1 for 1000 characters consumed.</t>
         </r>
       </text>
     </comment>
@@ -213,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>AI Builder Capability</t>
   </si>
@@ -305,13 +227,25 @@
     <t>Assumptions:</t>
   </si>
   <si>
-    <t>For AI Prompt calculation, token consumations is 7:3 (i.e. 700 input tokens and 300 output tokens per 1000 tokens consumed)</t>
-  </si>
-  <si>
-    <t>Copilot per credit cose is $0.008, based on  Copilot Studio Capacity (prepaid pack)</t>
-  </si>
-  <si>
-    <t>AI Builder per credit code is $0.0005, based on AI Builder Capacity add-on costs around $500 per month for 1 million credits</t>
+    <t>How to Use:</t>
+  </si>
+  <si>
+    <t>Credit rates are based on AI Builder Capability Rate table</t>
+  </si>
+  <si>
+    <t>Copilot per credit cost is $0.008, based on  Copilot Studio Capacity (prepaid pack)</t>
+  </si>
+  <si>
+    <t>AI Builder per credit cost is $0.0005, based on AI Builder Capacity add-on costs around $500 per month for 1 million credits</t>
+  </si>
+  <si>
+    <t>For AI Prompt calculation, token consumption is 7:3 (i.e. 700 input tokens and 300 output tokens per 1000 tokens consumed)</t>
+  </si>
+  <si>
+    <t>Enter 0 unit for AI builder capability not required</t>
+  </si>
+  <si>
+    <t>Select a AI builder capability and enter estimated number of units consumption for Project/ Organization. You may get this value from your existing AI builder credit consumption.</t>
   </si>
 </sst>
 </file>
@@ -321,7 +255,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,13 +278,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
@@ -364,11 +291,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -400,10 +328,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -411,14 +340,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -451,16 +383,39 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -470,6 +425,13 @@
         </c:rich>
       </c:tx>
       <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -485,9 +447,50 @@
             <c:v>Copilot Credits</c:v>
           </c:tx>
           <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:noFill/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="1"/>
           <c:cat>
@@ -558,7 +561,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -567,7 +570,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -576,13 +579,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -609,9 +612,50 @@
             <c:v>AI Builder Credits</c:v>
           </c:tx>
           <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:noFill/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="1"/>
           <c:cat>
@@ -682,7 +726,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1600</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -691,7 +735,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -700,13 +744,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -734,7 +778,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="10"/>
         <c:axId val="100"/>
       </c:barChart>
@@ -748,11 +793,20 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -762,11 +816,50 @@
             </c:rich>
           </c:tx>
           <c:overlay val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="100"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -779,44 +872,134 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Credits</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="1"/>
-        </c:title>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="10"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -846,10 +1029,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -885,13 +1077,50 @@
             <c:v>Copilot Cost</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="1"/>
           <c:cat>
@@ -962,7 +1191,7 @@
                 <c:formatCode>"$"#,##0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -971,7 +1200,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>320</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -980,13 +1209,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1001,19 +1230,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-28CD-4BF9-94CD-3E29BA4D565C}"/>
             </c:ext>
@@ -1026,13 +1242,50 @@
             <c:v>AI Builder Cost</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C0504D"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="1"/>
           <c:cat>
@@ -1103,7 +1356,7 @@
                 <c:formatCode>"$"#,##0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1112,7 +1365,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1121,13 +1374,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1142,19 +1395,6 @@
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-28CD-4BF9-94CD-3E29BA4D565C}"/>
             </c:ext>
@@ -1168,7 +1408,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="10"/>
         <c:axId val="100"/>
       </c:barChart>
@@ -1185,14 +1426,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:shade val="95000"/>
-                <a:satMod val="105000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -1202,9 +1442,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1232,12 +1474,11 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:shade val="95000"/>
-                  <a:satMod val="105000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1249,15 +1490,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:shade val="95000"/>
-                <a:satMod val="105000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1266,9 +1500,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1283,9 +1519,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1293,7 +1527,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1307,9 +1541,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1325,19 +1561,28 @@
     <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:tint val="75000"/>
-          <a:shade val="95000"/>
-          <a:satMod val="105000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1364,11 +1609,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>316941</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9842500" cy="4878917"/>
+    <xdr:ext cx="9659470" cy="4878917"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1394,10 +1639,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>296333</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1805</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>14818</xdr:rowOff>
+      <xdr:rowOff>22849</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="10064751" cy="4842932"/>
     <xdr:graphicFrame macro="">
@@ -1729,10 +1974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1791,23 +2036,23 @@
         <v>1.6</v>
       </c>
       <c r="E2" s="5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F13" si="0">C2*E2</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:G13" si="1">F2*0.008</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H13" si="2">D2*E2</f>
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I13" si="3">H2*0.0005</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1890,23 +2135,23 @@
         <v>100</v>
       </c>
       <c r="E5" s="5">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="3"/>
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1989,23 +2234,23 @@
         <v>20</v>
       </c>
       <c r="E8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="3"/>
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -2022,23 +2267,23 @@
         <v>3</v>
       </c>
       <c r="E9" s="5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -2055,23 +2300,23 @@
         <v>32</v>
       </c>
       <c r="E10" s="5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -2179,19 +2424,19 @@
       </c>
       <c r="F15">
         <f>SUM(F2:F13)</f>
-        <v>48201.5</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
         <f>SUM(G2:G13)</f>
-        <v>385.61200000000002</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <f>SUM(H2:H13)</f>
-        <v>536620</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
         <f>SUM(I2:I13)</f>
-        <v>268.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -2199,41 +2444,61 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="A19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="A20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0"/>
@@ -2242,10 +2507,14 @@
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A20:F20"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1" location="aibuildercapabilityrate-table" display="Credit rate is based on AI Builder Capability Rate table" xr:uid="{2F1E19D2-0A2A-4F1C-A5BB-C8D281307EF9}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2254,13 +2523,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>